--- a/testing/results_new_dataset/LLAMA_7B/new shit/PF_ENUM.RARR_Llama_7B_2.xlsx
+++ b/testing/results_new_dataset/LLAMA_7B/new shit/PF_ENUM.RARR_Llama_7B_2.xlsx
@@ -1159,16 +1159,16 @@
     <t>[('What does "go wobbly" mean in this context?', [('Wait a moment and try again.Something went wrong.', 'https://www.quora.com/What-does-a-British-person-mean-when-they-use-the-term-wobbly'), ('Learn new vocabulary by reading whatever you like\nAfter installing Reverso app, double-click words to look them up in articles, documents, emails, PDF…\nResults: 11.Elapsed time: 26 ms.\nWord index: 1-300, 301-600, 601-900Expression index: 1-400, 401-800, 801-1200Phrase index: 1-400, 401-800, 801-1200\nExpression index: 1-400, 401-800, 801-1200Phrase index: 1-400, 401-800, 801-1200\nPhrase index: 1-400, 401-800, 801-1200\nHelping millions of people and large organizations communicate more efficiently and precisely in all languages.', 'https://context.reverso.net/translation/english-russian/go+wobbly'), ('The discrepancy between what the president said and what his companies had done was too embarrassing to let it continue.That’s because the difference between what an immigrant could earn in his home country and in the United States is massive, and because U.S. employers can save thousands of dollars per employee by hiring illegal immigrants.', 'https://www.washingtonpost.com/opinions/2019/05/20/dont-go-wobbly-e-verify-mr-president/'), ('“This is no time to go wobbly, George,” she warned him.In another context I called these cicada terms.', 'https://theamericanscholar.org/is-there-a-word-for-that/')]), ('Who is the source of the quote, and what is their relation to the statement?', [('See examples of how to quote, paraphrase and summarize this paragraph below:\nExamples using the paragraph above:\nRandler (2009) states that late risers have “a high misalignment of social and biological time” which results in a mismatch between their natural schedules and the normal workday (p. 2793).Examples using the paragraph above:\nRecent research shows that people who are not naturally early risers often have persistent issues adjusting themselves to the morning-oriented schedule of most schools and workplaces, and because of this may be less proactive in their behaviors (Randler, 2009).', 'https://fitchburgstate.libguides.com/c.php?g=545285&amp;p=3740472'), ('The first thing to do when trying to identify a quote is to try to remember as much as possible about the wording of the quote.The Quote Verifier: Who Said What, Where, and When\nedited by Ralph Keyes\nArranged primarily in alphabetical order by quote keywords, with a name and keyword index.', 'https://www.nypl.org/blog/2013/11/22/how-to-research-quotations'), ('The phrases listed here are just some of the ways in which you can alert your reader that you are about to rephrase, clarify, expand, and otherwise analyze the source you have previously introduced.As with the phrases above, some are quite neutral, while others allow you to imply things about the quote’s tone, similarity, contrast, and/or significance in relation to other sources or to your larger argument.', 'https://www.brandeis.edu/writing-program/resources/faculty/handouts/phrases-for-introducing-sources-quotations.html'), ('One of the best ways to accomplish this update and keep educators aware of currents trends and theories in their fields is through professional development.A strong way to integrate source material is to use transitions.', 'https://academicguides.waldenu.edu/writingcenter/evidence/quotation'), ('Narrow the focus of your quotation search by "scoping," or limiting the sources you are searching to a particular type or format.Several sources allow you to search the full text of books online:', 'https://guides.loc.gov/quotations/online')])]</t>
   </si>
   <si>
-    <t>18 percent of our land in our state right now is either federally, state or county owned for conservation purposes.</t>
-  </si>
-  <si>
-    <t>Alberta Darling</t>
-  </si>
-  <si>
-    <t>The claim that 18% of the land in a given state is owned for conservation purposes cannot be verified. The provided information states that more than 60% of the land in the United States is privately owned, and the portion of privately owned land rises to 72% if Alaska is excluded. Additionally, it is mentioned that federal and state agencies manage public lands for various uses, including conservation, production, and recreation, but this does not necessarily translate to a specific percentage of land being owned for conservation purposes. Furthermore, there is no information provided that directly supports the claim made by Alberta Darling. Therefore, based on the available data, it can be concluded that the claim is false.</t>
-  </si>
-  <si>
-    <t>[('What percentage of land in the state is owned for conservation purposes?', [('Land is the answer.Local and state land trusts contributed to 70% of the growth in land protected since 2015.', 'https://landtrustalliance.org/land-trusts/gaining-ground/united-states'), ('Most of this land is family and individually owned and the average parcel size is smaller than 25 acres.Federal and state agencies manage public lands for a multitude of uses, including conservation, production, and recreation.', 'https://www.stateforesters.org/timber-assurance/legality/forest-ownership-statistics/'), ('This land is not included in either the "Total Area Owned by State and Federal Gov\'ts" and "Owned by Federal Gov\'t" columns.This land is now privately owned by the Native Corporations.', 'https://www.nrcm.org/documents/publiclandownership.pdf'), ('The amount and percentage of federally  owned land in each state vary  widely, ranging from 0.3% \nof land (in Connecticut and Iowa) to 80.1% of land (in Nevada).Table 1 also id entifies the total acreage of each state and the percentage of land in each \nstate administered by the five federal land agencies.', 'https://sgp.fas.org/crs/misc/R42346.pdf'), ('More than 60 percent of the land in the United States is privately owned,2The portion of privately owned land rises to 72 percent if Alaska is excluded.The U.S. acreage that is leased for hunting or owned primarily for hunting is estimated at 356 million acres, 17.8 percent of the country’s contiguous land area.7Luke Macaulay, “The Role of Wildlife-Associated Recreation in Private Land Use and Conservation: Providing the Missing Baseline,” Land Use Policy 58 (2016): 218-33.', 'https://www.perc.org/2023/06/26/how-states-shape-wildlife-conservation-on-private-lands/')]), ('Who made this statement about land ownership?', [('But basically, national public-land-use policy made land ownership financially unattainable for most would-be homesteaders.This meant that the homestead was their primary residence and that they made improvements upon the land.', 'https://www.archives.gov/education/lessons/homestead-act'), ('The opportunity to come and live off the land and in vast amounts was a tremendous attraction and a great value to the people who came here.The land here was ample, and it was available in fee simple, the type of land entitlement that gave the colonists complete and full ownership of the property, unlike what they could have had in England where all the fee simple title was in the crown and they would at best live at the sufferance of the king and, later, parliament.', 'https://www.heritage.org/economic-and-property-rights/report/the-framers-understanding-property'), ('More Featured Documents\n\n This page was last reviewed on November 27, 2023.Through 1986, when the last claim was made in Alaska, the Homestead Act distributed 270 million acres of land in the United States making it arguably one of the most far-reaching pieces of legislation in American history.', 'https://www.archives.gov/legislative/features/homestead-act'), ('From then on, property and land ownership became an important part of Washington’s life.His job was literally to survey and map the Virginia countryside for future land ownership and development.', 'https://pacificlegal.org/the-founding-fathers-of-our-limited-government-george-washington-and-the-importance-of-property-rights/'), ('A brief check for previous ownership claims was made for the plot of land in question, usually described by its survey coordinates.Free Land!"', 'https://www.nps.gov/articles/the-homestead-act.htm')])]</t>
+    <t>Perry pushed for a law that lets insurance companies raise homeowners’ rates without having to justify the increase.</t>
+  </si>
+  <si>
+    <t>Back to Basics</t>
+  </si>
+  <si>
+    <t>The provided question-answer pairs do not contain any information about a specific law related to insurance companies raising homeowners' rates without justification. The answers cover various topics such as religious denominations, laws and regulations, education policies, and court proceedings, but none of them mention the claim made by Back to Basics regarding Perry's actions on insurance rate increases. Therefore, it is not possible to verify or refute the claim based on the given information.</t>
+  </si>
+  <si>
+    <t>[('What does "Back to Basics" say about the law?', [('What LCMS is to Lutheranism, the EPC is to Presbyterians.This article alone is enough to make me go back to the LCMS church.', 'https://witness.lcms.org/2014/back-to-basics-law-and-gospel/'), ('Back to Basics-Christ and the Law\nFrank Jamerson\nWhen brethren are confused about whether Christ came to fulfill the law and prophets or to perpetuate them, it is time to get back to basics!"What purpose then does the law serve?', 'https://www.truthmagazine.com/archives/volume41/GOT041208a.html'), ('And that, it appears, is precisely what the Department of Education is about.It seems inevitable, therefore, that the recent encumberment of rulemaking will produce a renaissance of the previously favored mode of making law and policy—a movement back to basics, to adjudication.', 'https://www.aei.org/articles/back-to-basics-making-law-without-making-rules/'), ('Their word is law but it does not apply to them.a vote) does not solve this problem and more often than not the person or group with absolute power will simply default back to autocracy whether by cancelling elections or rigging them.', 'https://theshiftnews.com/2018/09/01/back-to-basics-what-is-the-rule-of-law/'), ("Kathy Hochul signed into legislation her 'Back to Basics' reading plan with the hope that it will improve reading proficiency rates across NYS.", 'https://www.wgrz.com/article/news/local/back-to-basics-reading-plan-proficency-nys-hochul/71-8fcb56aa-51ce-4fe3-aac9-6d6d591bb170')]), ('What specific law is being referred to?', [('If you want to read a law that is currently in force--that is, the amended version of the law--you will want to look at the United States Code.A law may also be referred to as an act (such as the Fair Credit Reporting Act) or as a statute.', 'https://www.senate.gov/legislative/HowTo/how_to_laws.htm'), ("The U.S. Constitution is the nation's fundamental law.Rule of law is a principle under which all persons, institutions, and entities are accountable to laws that are:\n\n\n\tThe courts play an integral role in maintaining the rule of law, particularly when they hear the grievances voiced by minority groups or by those who may hold minority opinions.", 'https://www.uscourts.gov/educational-resources/educational-activities/overview-rule-law'), ('Each piece of legislation is referred to the committee that has jurisdiction over the area affected by the measure.It is during committee action that the most intense consideration is given to the proposed measures; this is also the time when the people are given the opportunity to be heard.', 'http://www.house.gov/the-house-explained/the-legislative-process/introduction-referral'), ('However, the House may grant specific authority to agree to such an amendment by a separate vote on a motion to instruct on each specific amendment.However, the House may grant specific authority to agree to such an amendment by a separate vote on a motion to instruct on each specific amendment.', 'https://www.congress.gov/help/learn-about-the-legislative-process/how-our-laws-are-made'), ('Each allegation is referred to as a count.Often referred to as a TRO.', 'https://www.uscourts.gov/glossary')])]</t>
   </si>
 </sst>
 </file>
@@ -3561,10 +3561,10 @@
         <v>382</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>383</v>
